--- a/Username_Collection.xlsx
+++ b/Username_Collection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Title</t>
   </si>
@@ -46,16 +46,37 @@
     <t>Ongoing</t>
   </si>
   <si>
-    <t>タカキツヨシ</t>
-  </si>
-  <si>
-    <t>世界最強の後衛　～迷宮国の新人探索者～</t>
-  </si>
-  <si>
-    <t>力蔵 | 風花風花 | 朱月十話</t>
-  </si>
-  <si>
-    <t>나 혼자만 레벨업</t>
+    <t>Tsuyoshi Takaki</t>
+  </si>
+  <si>
+    <t>gggffff</t>
+  </si>
+  <si>
+    <t>Sekai Saikyou no Kouei: Meikyuukoku no Shinjin Tansakusha</t>
+  </si>
+  <si>
+    <t>Rikizo | Huuka Kazabana | Toowa Akatsuki</t>
+  </si>
+  <si>
+    <t>Vagabond</t>
+  </si>
+  <si>
+    <t>Hiatus</t>
+  </si>
+  <si>
+    <t>Takehiko Inoue | Eiji Yoshikawa</t>
+  </si>
+  <si>
+    <t>I Got a Cheat Skill in Another World and Became Unrivaled in The Real World, Too</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>Miku | Rein Kuwashima</t>
+  </si>
+  <si>
+    <t>Solo Leveling</t>
   </si>
   <si>
     <t>Manhwa</t>
@@ -64,7 +85,25 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>장성락</t>
+    <t>So-Ryeong Gi | Seong-Rak Jang | Chu-Gong | Hyeon-Gun</t>
+  </si>
+  <si>
+    <t>Blade &amp; Bastard: Hai wa Atatakaku, Meikyuu wa Honogurai</t>
+  </si>
+  <si>
+    <t>Coming Soon</t>
+  </si>
+  <si>
+    <t>Kumo Kagyuu | so-bin</t>
+  </si>
+  <si>
+    <t>Highschool of the Dead</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Daisuke Satou | Shouji Satou</t>
   </si>
 </sst>
 </file>
@@ -86,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,7 +139,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC3996E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB6EE56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8687D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE6B5F"/>
       </patternFill>
     </fill>
   </fills>
@@ -116,11 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,19 +489,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="73.421875" customWidth="1"/>
     <col min="2" max="2" width="9.421875" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.00390625" customWidth="1"/>
-    <col min="6" max="6" width="29.421875" customWidth="1"/>
-    <col min="7" max="7" width="7.00390625" customWidth="1"/>
+    <col min="6" max="6" width="51.421875" customWidth="1"/>
+    <col min="7" max="7" width="7.421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="1">
@@ -489,10 +546,13 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -507,15 +567,15 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -524,10 +584,90 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Username_Collection.xlsx
+++ b/Username_Collection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Title</t>
   </si>
@@ -49,61 +49,64 @@
     <t>Tsuyoshi Takaki</t>
   </si>
   <si>
-    <t>gggffff</t>
+    <t>Call of the Night</t>
+  </si>
+  <si>
+    <t>Kotoyama</t>
+  </si>
+  <si>
+    <t>Attack on Titan</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Hajime Isayama</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Novel</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Kugane Maruyama | so-bin</t>
+  </si>
+  <si>
+    <t>Vagabond</t>
+  </si>
+  <si>
+    <t>Hiatus</t>
+  </si>
+  <si>
+    <t>Takehiko Inoue | Eiji Yoshikawa</t>
+  </si>
+  <si>
+    <t>Highschool of the Dead</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Daisuke Satou | Shouji Satou</t>
+  </si>
+  <si>
+    <t>Lycoris Recoil Koushiki Comic Anthology: Repeat</t>
+  </si>
+  <si>
+    <t>Coming Soon</t>
+  </si>
+  <si>
+    <t>Atto | Miki Morinaga | Takeshi Kojima | Tiv | Nachi Aono | Ren Sakuragi | Itsuki Takano | Ginmoku | Kanari Abe | GUNP | Nikomi Wakadori | sometime | Ryou Niina | Mekimeki | Sou Hamayumiba |  Nyoijizai  | Raika Suzumi | Mikaduchi | Ree</t>
   </si>
   <si>
     <t>Sekai Saikyou no Kouei: Meikyuukoku no Shinjin Tansakusha</t>
   </si>
   <si>
     <t>Rikizo | Huuka Kazabana | Toowa Akatsuki</t>
-  </si>
-  <si>
-    <t>Vagabond</t>
-  </si>
-  <si>
-    <t>Hiatus</t>
-  </si>
-  <si>
-    <t>Takehiko Inoue | Eiji Yoshikawa</t>
-  </si>
-  <si>
-    <t>I Got a Cheat Skill in Another World and Became Unrivaled in The Real World, Too</t>
-  </si>
-  <si>
-    <t>Novel</t>
-  </si>
-  <si>
-    <t>Miku | Rein Kuwashima</t>
-  </si>
-  <si>
-    <t>Solo Leveling</t>
-  </si>
-  <si>
-    <t>Manhwa</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>So-Ryeong Gi | Seong-Rak Jang | Chu-Gong | Hyeon-Gun</t>
-  </si>
-  <si>
-    <t>Blade &amp; Bastard: Hai wa Atatakaku, Meikyuu wa Honogurai</t>
-  </si>
-  <si>
-    <t>Coming Soon</t>
-  </si>
-  <si>
-    <t>Kumo Kagyuu | so-bin</t>
-  </si>
-  <si>
-    <t>Highschool of the Dead</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>Daisuke Satou | Shouji Satou</t>
   </si>
 </sst>
 </file>
@@ -139,22 +142,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC3996E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFB6EE56"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8687D9"/>
+        <fgColor rgb="FFFADA5E"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFE6B5F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8687D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -489,19 +492,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="73.421875" customWidth="1"/>
-    <col min="2" max="2" width="9.421875" customWidth="1"/>
+    <col min="1" max="1" width="54.57421875" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
     <col min="3" max="3" width="13.28125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.00390625" customWidth="1"/>
-    <col min="6" max="6" width="51.421875" customWidth="1"/>
-    <col min="7" max="7" width="7.421875" customWidth="1"/>
+    <col min="6" max="6" width="5.8515625" customWidth="1"/>
+    <col min="7" max="7" width="215.00390625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="true" s="1">
@@ -543,16 +546,13 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -561,41 +561,41 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -604,9 +604,12 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -615,59 +618,79 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
